--- a/original data sources.xlsx
+++ b/original data sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\duck-river-traits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B86AB40-1532-4618-9967-37BFC88B07CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA16EE7-5F8A-4AAB-8957-901EF2C455AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{C7BC84C8-8E2D-4231-84F8-692AD85FFC5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{C7BC84C8-8E2D-4231-84F8-692AD85FFC5B}"/>
   </bookViews>
   <sheets>
     <sheet name="gibson 92" sheetId="1" r:id="rId1"/>
@@ -1976,9 +1976,6 @@
     <t>Price (1979) listed this species, but then changed it to Cassytha pubescens in Price (1988) due to C. paniculata being synonymised under C. pubescens (Weber 1981). However, C. paniculata has since been recognised as a legitimate species occurring in Australia, and thus I have changed this back to Price’s original listing (also, all specimens I observed during my survey were C. paniculata).</t>
   </si>
   <si>
-    <t>Arthropodium sp. South-east Highlands (N.G.Walsh 811)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Price (1988) listed this as Arthropodium milleflorum, however, I am almost certain that what he observed was Arthropodium sp. South-east Highlands (N.G.Walsh 811). The two species are very similar, and difficult to separate when not in flower; in both the PlantNET and VicFlora keys, the two species are separated based on anther colour (purple versus white or green respectively). The first reference to this entity that I can find is the now synonymised Arthropodium sp. Tasmania (N.Brittan s.n.) from 1991 (see https://biodiversity.org.au/nsl/services/rest/node/apni/2911412), three years after Price’s list. This was followed by Arthropodium sp.B (1993) and Arthropodium sp.2 (1994). Arthropodium sp. South-east Highlands (N.G.Walsh 811) is currently common and widespread throughout the reserve, and I did not observe Arthropodium milleflorum during my survey. I have thus changed Price’s listing to Arthropodium sp. South-east Highlands (N.G.Walsh 811). </t>
   </si>
   <si>
@@ -2898,6 +2895,9 @@
   </si>
   <si>
     <t>Solanum linnaeanum</t>
+  </si>
+  <si>
+    <t>Arthropodium sp. South-east Highlands (N.G.Walsh 811) Vic. Herbarium</t>
   </si>
 </sst>
 </file>
@@ -4196,10 +4196,10 @@
         <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H36" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5024,7 +5024,7 @@
         <v>235</v>
       </c>
       <c r="H111" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -5054,7 +5054,7 @@
         <v>158</v>
       </c>
       <c r="B114" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>256</v>
@@ -5211,7 +5211,7 @@
         <v>172</v>
       </c>
       <c r="H128" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -5252,7 +5252,7 @@
         <v>176</v>
       </c>
       <c r="B132" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H132" t="s">
         <v>180</v>
@@ -5462,8 +5462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0EC101-622A-4A33-9D77-4C52ADEE9870}">
   <dimension ref="A1:O268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="J188" sqref="J188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5498,7 +5498,7 @@
         <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5512,7 +5512,7 @@
         <v>592</v>
       </c>
       <c r="F2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -5521,7 +5521,7 @@
         <v>302</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -5544,7 +5544,7 @@
         <v>545</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5638,7 +5638,7 @@
         <v>489</v>
       </c>
       <c r="F8" t="s">
-        <v>645</v>
+        <v>952</v>
       </c>
       <c r="J8" t="s">
         <v>308</v>
@@ -5655,7 +5655,7 @@
         <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J9" t="s">
         <v>309</v>
@@ -5675,7 +5675,7 @@
         <v>510</v>
       </c>
       <c r="F10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J10" t="s">
         <v>546</v>
@@ -5698,7 +5698,7 @@
         <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J11" t="s">
         <v>311</v>
@@ -5727,7 +5727,7 @@
         <v>574</v>
       </c>
       <c r="O12" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -5735,13 +5735,13 @@
         <v>313</v>
       </c>
       <c r="B13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N13" t="s">
         <v>318</v>
@@ -5778,10 +5778,10 @@
         <v>314</v>
       </c>
       <c r="N15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="O15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -5832,7 +5832,7 @@
         <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -6067,10 +6067,10 @@
         <v>332</v>
       </c>
       <c r="N32" t="s">
+        <v>952</v>
+      </c>
+      <c r="O32" t="s">
         <v>645</v>
-      </c>
-      <c r="O32" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -6084,10 +6084,10 @@
         <v>559</v>
       </c>
       <c r="N33" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -6101,10 +6101,10 @@
         <v>560</v>
       </c>
       <c r="N34" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O34" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -6118,10 +6118,10 @@
         <v>335</v>
       </c>
       <c r="N35" t="s">
+        <v>651</v>
+      </c>
+      <c r="O35" t="s">
         <v>652</v>
-      </c>
-      <c r="O35" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -6138,7 +6138,7 @@
         <v>276</v>
       </c>
       <c r="O36" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -6152,10 +6152,10 @@
         <v>561</v>
       </c>
       <c r="N37" t="s">
+        <v>654</v>
+      </c>
+      <c r="O37" t="s">
         <v>655</v>
-      </c>
-      <c r="O37" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -6848,7 +6848,7 @@
         <v>394</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -6991,7 +6991,7 @@
         <v>577</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -7596,7 +7596,7 @@
         <v>456</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -7783,7 +7783,7 @@
         <v>470</v>
       </c>
       <c r="J185" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -7816,7 +7816,7 @@
         <v>472</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>645</v>
+        <v>952</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -8700,8 +8700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AEF565-4C7D-4E03-B6EE-F359AA8C11CB}">
   <dimension ref="A1:O468"/>
   <sheetViews>
-    <sheetView topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="B315" sqref="B315"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8738,7 +8738,7 @@
         <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -8761,15 +8761,15 @@
         <v>302</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D3" t="s">
         <v>489</v>
@@ -8783,13 +8783,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B4" t="s">
         <v>545</v>
       </c>
       <c r="D4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F4" t="s">
         <v>66</v>
@@ -8809,7 +8809,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F5" t="s">
         <v>639</v>
@@ -8821,7 +8821,7 @@
         <v>304</v>
       </c>
       <c r="O5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -8832,10 +8832,10 @@
         <v>305</v>
       </c>
       <c r="D6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J6" t="s">
         <v>305</v>
@@ -8844,7 +8844,7 @@
         <v>562</v>
       </c>
       <c r="O6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -8855,7 +8855,7 @@
         <v>306</v>
       </c>
       <c r="D7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F7" t="s">
         <v>278</v>
@@ -8878,7 +8878,7 @@
         <v>307</v>
       </c>
       <c r="D8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F8" t="s">
         <v>143</v>
@@ -8895,25 +8895,25 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F9" t="s">
         <v>256</v>
       </c>
       <c r="J9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="N9" t="s">
         <v>66</v>
       </c>
       <c r="O9" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -8924,19 +8924,19 @@
         <v>308</v>
       </c>
       <c r="D10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F10" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J10" t="s">
         <v>308</v>
       </c>
       <c r="N10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O10" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -8947,7 +8947,7 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F11" t="s">
         <v>223</v>
@@ -8956,33 +8956,33 @@
         <v>50</v>
       </c>
       <c r="N11" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B12" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F12" t="s">
-        <v>645</v>
+        <v>952</v>
       </c>
       <c r="J12" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="N12" t="s">
         <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -8993,10 +8993,10 @@
         <v>311</v>
       </c>
       <c r="D13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F13" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J13" t="s">
         <v>311</v>
@@ -9016,10 +9016,10 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J14" t="s">
         <v>54</v>
@@ -9033,19 +9033,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B15" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F15" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J15" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N15" t="s">
         <v>278</v>
@@ -9056,13 +9056,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B16" t="s">
         <v>202</v>
       </c>
       <c r="D16" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F16" t="s">
         <v>276</v>
@@ -9074,7 +9074,7 @@
         <v>143</v>
       </c>
       <c r="O16" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -9085,10 +9085,10 @@
         <v>270</v>
       </c>
       <c r="D17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J17" t="s">
         <v>270</v>
@@ -9108,73 +9108,73 @@
         <v>557</v>
       </c>
       <c r="D18" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J18" t="s">
         <v>557</v>
       </c>
       <c r="N18" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O18" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="N19" t="s">
         <v>223</v>
       </c>
       <c r="O19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J20" t="s">
         <v>70</v>
       </c>
       <c r="N20" t="s">
+        <v>952</v>
+      </c>
+      <c r="O20" t="s">
         <v>645</v>
-      </c>
-      <c r="O20" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N21" t="s">
+        <v>942</v>
+      </c>
+      <c r="O21" t="s">
         <v>943</v>
-      </c>
-      <c r="O21" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -9188,27 +9188,27 @@
         <v>72</v>
       </c>
       <c r="N22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B23" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J23" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="N23" t="s">
+        <v>651</v>
+      </c>
+      <c r="O23" t="s">
         <v>652</v>
-      </c>
-      <c r="O23" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -9216,16 +9216,16 @@
         <v>337</v>
       </c>
       <c r="B24" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J24" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N24" t="s">
         <v>276</v>
       </c>
       <c r="O24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -9239,10 +9239,10 @@
         <v>338</v>
       </c>
       <c r="N25" t="s">
+        <v>654</v>
+      </c>
+      <c r="O25" t="s">
         <v>655</v>
-      </c>
-      <c r="O25" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -9256,10 +9256,10 @@
         <v>339</v>
       </c>
       <c r="N26" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="O26" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -9273,27 +9273,27 @@
         <v>197</v>
       </c>
       <c r="N27" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O27" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B28" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J28" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="N28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O28" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -9307,61 +9307,61 @@
         <v>262</v>
       </c>
       <c r="N29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O29" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N30" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O30" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B31" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J31" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="N31" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="O31" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B32" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J32" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="N32" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="O32" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -9372,47 +9372,47 @@
         <v>209</v>
       </c>
       <c r="J33" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N33" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O33" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B34" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J34" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="N34" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O34" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B35" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J35" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O35" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -9426,10 +9426,10 @@
         <v>643</v>
       </c>
       <c r="N36" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -9443,15 +9443,15 @@
         <v>340</v>
       </c>
       <c r="N37" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O37" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B38" t="s">
         <v>341</v>
@@ -9460,10 +9460,10 @@
         <v>341</v>
       </c>
       <c r="N38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O38" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -9477,15 +9477,15 @@
         <v>75</v>
       </c>
       <c r="N39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O39" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B40" t="s">
         <v>564</v>
@@ -9494,15 +9494,15 @@
         <v>564</v>
       </c>
       <c r="N40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O40" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B41" t="s">
         <v>565</v>
@@ -9530,7 +9530,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B43" t="s">
         <v>563</v>
@@ -9541,21 +9541,21 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B44" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J44" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B45" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>562</v>
@@ -9563,24 +9563,24 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B46" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B47" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J47" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -9643,10 +9643,10 @@
         <v>313</v>
       </c>
       <c r="B53" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J53" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -9673,7 +9673,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B56" t="s">
         <v>196</v>
@@ -9684,13 +9684,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B57" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J57" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -9734,15 +9734,15 @@
         <v>204</v>
       </c>
       <c r="J61" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B62" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J62" t="s">
         <v>58</v>
@@ -9750,46 +9750,46 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B63" t="s">
         <v>58</v>
       </c>
       <c r="J63" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B64" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J64" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B65" t="s">
+        <v>874</v>
+      </c>
+      <c r="J65" t="s">
         <v>875</v>
-      </c>
-      <c r="J65" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B66" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J66" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -9797,18 +9797,18 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J67" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B68" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J68" t="s">
         <v>550</v>
@@ -9816,10 +9816,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B69" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J69" t="s">
         <v>551</v>
@@ -9855,12 +9855,12 @@
         <v>552</v>
       </c>
       <c r="J72" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B73" t="s">
         <v>332</v>
@@ -9871,13 +9871,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B74" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -9893,13 +9893,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B76" t="s">
         <v>553</v>
       </c>
       <c r="J76" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -9915,10 +9915,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B78" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>66</v>
@@ -9926,7 +9926,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B79" t="s">
         <v>555</v>
@@ -9937,7 +9937,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B80" t="s">
         <v>66</v>
@@ -9954,7 +9954,7 @@
         <v>330</v>
       </c>
       <c r="J81" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -9970,43 +9970,43 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B83" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J83" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B84" t="s">
         <v>273</v>
       </c>
       <c r="J84" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B85" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J85" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B86" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J86" t="s">
         <v>68</v>
@@ -10014,18 +10014,18 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B87" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J87" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B88" t="s">
         <v>68</v>
@@ -10036,10 +10036,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B89" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J89" t="s">
         <v>335</v>
@@ -10069,7 +10069,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B92" t="s">
         <v>547</v>
@@ -10091,13 +10091,13 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B94" t="s">
         <v>210</v>
       </c>
       <c r="J94" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -10113,13 +10113,13 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>711</v>
+      </c>
+      <c r="B96" t="s">
+        <v>882</v>
+      </c>
+      <c r="J96" t="s">
         <v>712</v>
-      </c>
-      <c r="B96" t="s">
-        <v>883</v>
-      </c>
-      <c r="J96" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -10130,26 +10130,26 @@
         <v>77</v>
       </c>
       <c r="J97" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B98" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J98" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B99" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J99" t="s">
         <v>260</v>
@@ -10157,32 +10157,32 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B100" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J100" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B101" t="s">
         <v>260</v>
       </c>
       <c r="J101" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B102" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J102" t="s">
         <v>212</v>
@@ -10190,13 +10190,13 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>717</v>
+      </c>
+      <c r="B103" t="s">
+        <v>886</v>
+      </c>
+      <c r="J103" t="s">
         <v>718</v>
-      </c>
-      <c r="B103" t="s">
-        <v>887</v>
-      </c>
-      <c r="J103" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -10212,13 +10212,13 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>718</v>
+      </c>
+      <c r="B105" t="s">
+        <v>718</v>
+      </c>
+      <c r="J105" t="s">
         <v>719</v>
-      </c>
-      <c r="B105" t="s">
-        <v>719</v>
-      </c>
-      <c r="J105" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -10229,26 +10229,26 @@
         <v>80</v>
       </c>
       <c r="J106" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B107" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J107" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B108" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J108" t="s">
         <v>351</v>
@@ -10256,10 +10256,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B109" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J109" t="s">
         <v>352</v>
@@ -10350,37 +10350,37 @@
         <v>357</v>
       </c>
       <c r="J117" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B118" t="s">
         <v>358</v>
       </c>
       <c r="J118" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B119" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J119" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B120" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J120" t="s">
         <v>359</v>
@@ -10388,10 +10388,10 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B121" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J121" t="s">
         <v>276</v>
@@ -10413,7 +10413,7 @@
         <v>360</v>
       </c>
       <c r="B123" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J123" t="s">
         <v>286</v>
@@ -10438,7 +10438,7 @@
         <v>286</v>
       </c>
       <c r="J125" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -10449,37 +10449,37 @@
         <v>82</v>
       </c>
       <c r="J126" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B127" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J127" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B128" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J128" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B129" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J129" t="s">
         <v>387</v>
@@ -10487,13 +10487,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>729</v>
+      </c>
+      <c r="B130" t="s">
+        <v>884</v>
+      </c>
+      <c r="J130" t="s">
         <v>730</v>
-      </c>
-      <c r="B130" t="s">
-        <v>885</v>
-      </c>
-      <c r="J130" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -10509,10 +10509,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B132" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J132" t="s">
         <v>390</v>
@@ -10548,7 +10548,7 @@
         <v>391</v>
       </c>
       <c r="J135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -10559,15 +10559,15 @@
         <v>392</v>
       </c>
       <c r="J136" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B137" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J137" t="s">
         <v>95</v>
@@ -10575,10 +10575,10 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B138" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J138" t="s">
         <v>94</v>
@@ -10592,7 +10592,7 @@
         <v>95</v>
       </c>
       <c r="J139" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -10608,13 +10608,13 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>733</v>
+      </c>
+      <c r="B141" t="s">
+        <v>890</v>
+      </c>
+      <c r="J141" t="s">
         <v>734</v>
-      </c>
-      <c r="B141" t="s">
-        <v>891</v>
-      </c>
-      <c r="J141" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -10625,15 +10625,15 @@
         <v>399</v>
       </c>
       <c r="J142" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B143" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J143" t="s">
         <v>96</v>
@@ -10641,10 +10641,10 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B144" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J144" t="s">
         <v>17</v>
@@ -10658,12 +10658,12 @@
         <v>96</v>
       </c>
       <c r="J145" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B146" t="s">
         <v>17</v>
@@ -10674,10 +10674,10 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B147" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J147" t="s">
         <v>404</v>
@@ -10702,7 +10702,7 @@
         <v>404</v>
       </c>
       <c r="J149" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -10713,15 +10713,15 @@
         <v>405</v>
       </c>
       <c r="J150" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B151" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J151" t="s">
         <v>99</v>
@@ -10729,13 +10729,13 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>739</v>
+      </c>
+      <c r="B152" t="s">
+        <v>739</v>
+      </c>
+      <c r="J152" t="s">
         <v>740</v>
-      </c>
-      <c r="B152" t="s">
-        <v>740</v>
-      </c>
-      <c r="J152" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -10751,10 +10751,10 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B154" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J154" t="s">
         <v>101</v>
@@ -10817,7 +10817,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B160" t="s">
         <v>365</v>
@@ -10889,7 +10889,7 @@
         <v>103</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -10993,7 +10993,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B176" t="s">
         <v>584</v>
@@ -11010,7 +11010,7 @@
         <v>104</v>
       </c>
       <c r="J177" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -11026,10 +11026,10 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B179" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J179" t="s">
         <v>427</v>
@@ -11065,7 +11065,7 @@
         <v>428</v>
       </c>
       <c r="J182" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -11081,13 +11081,13 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B184" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J184" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -11103,21 +11103,21 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B186" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J186" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B187" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J187" t="s">
         <v>3</v>
@@ -11125,10 +11125,10 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B188" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J188" t="s">
         <v>284</v>
@@ -11147,21 +11147,21 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B190" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J190" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B191" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J191" t="s">
         <v>418</v>
@@ -11169,10 +11169,10 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B192" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J192" t="s">
         <v>107</v>
@@ -11183,7 +11183,7 @@
         <v>105</v>
       </c>
       <c r="B193" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J193" t="s">
         <v>108</v>
@@ -11191,10 +11191,10 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B194" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J194" t="s">
         <v>581</v>
@@ -11202,13 +11202,13 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B195" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J195" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -11241,26 +11241,26 @@
         <v>580</v>
       </c>
       <c r="J198" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B199" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J199" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B200" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J200" t="s">
         <v>421</v>
@@ -11268,10 +11268,10 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B201" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J201" t="s">
         <v>109</v>
@@ -11285,15 +11285,15 @@
         <v>418</v>
       </c>
       <c r="J202" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B203" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J203" t="s">
         <v>217</v>
@@ -11301,10 +11301,10 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B204" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J204" t="s">
         <v>111</v>
@@ -11329,7 +11329,7 @@
         <v>108</v>
       </c>
       <c r="J206" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -11345,35 +11345,35 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B208" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J208" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B209" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J209" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B210" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J210" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -11384,7 +11384,7 @@
         <v>582</v>
       </c>
       <c r="J211" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -11400,10 +11400,10 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B213" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J213" t="s">
         <v>251</v>
@@ -11411,10 +11411,10 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B214" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J214" t="s">
         <v>572</v>
@@ -11422,10 +11422,10 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B215" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J215" t="s">
         <v>371</v>
@@ -11444,10 +11444,10 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B217" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J217" t="s">
         <v>373</v>
@@ -11466,10 +11466,10 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B219" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J219" s="2" t="s">
         <v>278</v>
@@ -11494,12 +11494,12 @@
         <v>111</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B222" t="s">
         <v>112</v>
@@ -11510,10 +11510,10 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B223" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J223" t="s">
         <v>378</v>
@@ -11521,7 +11521,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B224" t="s">
         <v>430</v>
@@ -11543,10 +11543,10 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B226" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J226" t="s">
         <v>575</v>
@@ -11554,10 +11554,10 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B227" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J227" t="s">
         <v>382</v>
@@ -11565,10 +11565,10 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B228" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J228" t="s">
         <v>383</v>
@@ -11576,10 +11576,10 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B229" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J229" t="s">
         <v>384</v>
@@ -11604,7 +11604,7 @@
         <v>219</v>
       </c>
       <c r="J231" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -11615,7 +11615,7 @@
         <v>572</v>
       </c>
       <c r="J232" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -11626,7 +11626,7 @@
         <v>371</v>
       </c>
       <c r="J233" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -11659,7 +11659,7 @@
         <v>375</v>
       </c>
       <c r="J236" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -11681,18 +11681,18 @@
         <v>84</v>
       </c>
       <c r="J238" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B239" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J239" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -11703,7 +11703,7 @@
         <v>377</v>
       </c>
       <c r="J240" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -11714,7 +11714,7 @@
         <v>378</v>
       </c>
       <c r="J241" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -11736,7 +11736,7 @@
         <v>380</v>
       </c>
       <c r="J243" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -11747,7 +11747,7 @@
         <v>575</v>
       </c>
       <c r="J244" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -11758,7 +11758,7 @@
         <v>382</v>
       </c>
       <c r="J245" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -11796,10 +11796,10 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B249" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J249" t="s">
         <v>435</v>
@@ -11807,10 +11807,10 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B250" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J250" t="s">
         <v>436</v>
@@ -11818,10 +11818,10 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B251" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J251" t="s">
         <v>437</v>
@@ -11851,10 +11851,10 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B254" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J254" t="s">
         <v>121</v>
@@ -11873,10 +11873,10 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B256" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J256" t="s">
         <v>220</v>
@@ -11884,10 +11884,10 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B257" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J257" t="s">
         <v>440</v>
@@ -11895,10 +11895,10 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B258" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J258" t="s">
         <v>122</v>
@@ -11906,13 +11906,13 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B259" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J259" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -11928,10 +11928,10 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B261" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J261" t="s">
         <v>222</v>
@@ -11939,21 +11939,21 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B262" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J262" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B263" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J263" t="s">
         <v>299</v>
@@ -11961,10 +11961,10 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B264" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J264" t="s">
         <v>441</v>
@@ -12071,18 +12071,18 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B274" t="s">
         <v>123</v>
       </c>
       <c r="J274" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B275" t="s">
         <v>220</v>
@@ -12110,18 +12110,18 @@
         <v>122</v>
       </c>
       <c r="J277" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B278" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J278" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -12132,7 +12132,7 @@
         <v>637</v>
       </c>
       <c r="J279" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -12143,18 +12143,18 @@
         <v>222</v>
       </c>
       <c r="J280" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B281" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J281" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -12253,7 +12253,7 @@
         <v>449</v>
       </c>
       <c r="J290" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -12264,7 +12264,7 @@
         <v>450</v>
       </c>
       <c r="J291" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -12280,21 +12280,21 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B293" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J293" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B294" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J294" t="s">
         <v>137</v>
@@ -12313,35 +12313,35 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B296" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J296" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B297" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J297" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B298" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J298" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -12349,7 +12349,7 @@
         <v>132</v>
       </c>
       <c r="B299" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J299" t="s">
         <v>461</v>
@@ -12357,10 +12357,10 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B300" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J300" t="s">
         <v>590</v>
@@ -12374,7 +12374,7 @@
         <v>452</v>
       </c>
       <c r="J301" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -12385,7 +12385,7 @@
         <v>300</v>
       </c>
       <c r="J302" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -12429,12 +12429,12 @@
         <v>456</v>
       </c>
       <c r="J306" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B307" t="s">
         <v>134</v>
@@ -12451,15 +12451,15 @@
         <v>458</v>
       </c>
       <c r="J308" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B309" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J309" t="s">
         <v>140</v>
@@ -12467,10 +12467,10 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B310" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J310" t="s">
         <v>141</v>
@@ -12484,15 +12484,15 @@
         <v>136</v>
       </c>
       <c r="J311" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B312" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J312" t="s">
         <v>301</v>
@@ -12506,7 +12506,7 @@
         <v>137</v>
       </c>
       <c r="J313" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -12522,10 +12522,10 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B315" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J315" t="s">
         <v>252</v>
@@ -12533,10 +12533,10 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B316" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J316" t="s">
         <v>51</v>
@@ -12544,18 +12544,18 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B317" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J317" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B318" t="s">
         <v>461</v>
@@ -12580,7 +12580,7 @@
         <v>462</v>
       </c>
       <c r="B320" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J320" t="s">
         <v>237</v>
@@ -12605,7 +12605,7 @@
         <v>463</v>
       </c>
       <c r="J322" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -12616,26 +12616,26 @@
         <v>139</v>
       </c>
       <c r="J323" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B324" t="s">
         <v>258</v>
       </c>
       <c r="J324" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B325" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J325" t="s">
         <v>465</v>
@@ -12649,15 +12649,15 @@
         <v>53</v>
       </c>
       <c r="J326" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B327" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J327" t="s">
         <v>147</v>
@@ -12687,10 +12687,10 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B330" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J330" t="s">
         <v>469</v>
@@ -12709,35 +12709,35 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B332" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J332" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B333" t="s">
         <v>199</v>
       </c>
       <c r="J333" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B334" t="s">
         <v>225</v>
       </c>
       <c r="J334" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -12748,23 +12748,23 @@
         <v>51</v>
       </c>
       <c r="J335" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B336" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J336" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B337" t="s">
         <v>143</v>
@@ -12803,15 +12803,15 @@
         <v>145</v>
       </c>
       <c r="J340" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B341" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J341" t="s">
         <v>175</v>
@@ -12819,10 +12819,10 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B342" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J342" t="s">
         <v>198</v>
@@ -12833,7 +12833,7 @@
         <v>146</v>
       </c>
       <c r="B343" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J343" t="s">
         <v>169</v>
@@ -12847,18 +12847,18 @@
         <v>465</v>
       </c>
       <c r="J344" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B345" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J345" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
@@ -12880,7 +12880,7 @@
         <v>466</v>
       </c>
       <c r="J347" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
@@ -12918,10 +12918,10 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B351" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J351" t="s">
         <v>179</v>
@@ -12929,10 +12929,10 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B352" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J352" t="s">
         <v>521</v>
@@ -12940,10 +12940,10 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B353" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J353" t="s">
         <v>599</v>
@@ -12951,10 +12951,10 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B354" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J354" t="s">
         <v>177</v>
@@ -12962,10 +12962,10 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B355" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J355" t="s">
         <v>178</v>
@@ -12984,7 +12984,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B357" t="s">
         <v>184</v>
@@ -13017,13 +13017,13 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B360" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J360" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
@@ -13045,7 +13045,7 @@
         <v>198</v>
       </c>
       <c r="J362" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
@@ -13056,26 +13056,26 @@
         <v>169</v>
       </c>
       <c r="J363" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B364" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J364" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B365" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J365" t="s">
         <v>295</v>
@@ -13089,15 +13089,15 @@
         <v>180</v>
       </c>
       <c r="J366" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B367" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J367" t="s">
         <v>597</v>
@@ -13133,7 +13133,7 @@
         <v>520</v>
       </c>
       <c r="J370" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
@@ -13199,7 +13199,7 @@
         <v>187</v>
       </c>
       <c r="J376" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
@@ -13210,7 +13210,7 @@
         <v>534</v>
       </c>
       <c r="J377" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
@@ -13237,10 +13237,10 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B380" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J380" t="s">
         <v>497</v>
@@ -13259,32 +13259,32 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B382" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J382" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B383" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J383" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B384" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J384" t="s">
         <v>601</v>
@@ -13298,18 +13298,18 @@
         <v>295</v>
       </c>
       <c r="J385" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B386" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J386" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
@@ -13331,12 +13331,12 @@
         <v>296</v>
       </c>
       <c r="J388" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B389" t="s">
         <v>595</v>
@@ -13347,10 +13347,10 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>911</v>
+      </c>
+      <c r="B390" t="s">
         <v>912</v>
-      </c>
-      <c r="B390" t="s">
-        <v>913</v>
       </c>
       <c r="J390" t="s">
         <v>523</v>
@@ -13364,7 +13364,7 @@
         <v>511</v>
       </c>
       <c r="J391" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
@@ -13375,7 +13375,7 @@
         <v>517</v>
       </c>
       <c r="J392" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
@@ -13391,7 +13391,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B394" t="s">
         <v>512</v>
@@ -13408,15 +13408,15 @@
         <v>513</v>
       </c>
       <c r="J395" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B396" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J396" t="s">
         <v>518</v>
@@ -13424,10 +13424,10 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B397" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J397" t="s">
         <v>519</v>
@@ -13441,7 +13441,7 @@
         <v>605</v>
       </c>
       <c r="J398" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
@@ -13452,7 +13452,7 @@
         <v>606</v>
       </c>
       <c r="J399" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
@@ -13479,10 +13479,10 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B402" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J402" t="s">
         <v>191</v>
@@ -13490,10 +13490,10 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B403" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J403" t="s">
         <v>245</v>
@@ -13512,10 +13512,10 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B405" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J405" t="s">
         <v>186</v>
@@ -13523,18 +13523,18 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B406" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J406" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B407" t="s">
         <v>514</v>
@@ -13545,10 +13545,10 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B408" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J408" t="s">
         <v>503</v>
@@ -13573,29 +13573,29 @@
         <v>523</v>
       </c>
       <c r="J410" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B411" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J411" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B412" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J412" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
@@ -13606,12 +13606,12 @@
         <v>194</v>
       </c>
       <c r="J413" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B414" t="s">
         <v>244</v>
@@ -13622,10 +13622,10 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B415" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J415" t="s">
         <v>233</v>
@@ -13650,7 +13650,7 @@
         <v>519</v>
       </c>
       <c r="J417" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
@@ -13658,7 +13658,7 @@
         <v>525</v>
       </c>
       <c r="B418" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J418" t="s">
         <v>255</v>
@@ -13666,10 +13666,10 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B419" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J419" t="s">
         <v>472</v>
@@ -13694,18 +13694,18 @@
         <v>247</v>
       </c>
       <c r="J421" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B422" t="s">
         <v>191</v>
       </c>
       <c r="J422" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
@@ -13727,7 +13727,7 @@
         <v>600</v>
       </c>
       <c r="J424" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
@@ -13743,13 +13743,13 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B426" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J426" s="2" t="s">
-        <v>645</v>
+        <v>952</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
@@ -13760,7 +13760,7 @@
         <v>242</v>
       </c>
       <c r="J427" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
@@ -13771,7 +13771,7 @@
         <v>503</v>
       </c>
       <c r="J428" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
@@ -13787,10 +13787,10 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B430" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J430" t="s">
         <v>480</v>
@@ -13798,10 +13798,10 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B431" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J431" t="s">
         <v>482</v>
@@ -13809,10 +13809,10 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B432" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J432" t="s">
         <v>283</v>
@@ -13820,10 +13820,10 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B433" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J433" t="s">
         <v>238</v>
@@ -13853,7 +13853,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B436" t="s">
         <v>236</v>
@@ -13864,10 +13864,10 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B437" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J437" t="s">
         <v>491</v>
@@ -13908,10 +13908,10 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B441" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J441" t="s">
         <v>540</v>
@@ -13936,15 +13936,15 @@
         <v>475</v>
       </c>
       <c r="J443" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B444" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J444" t="s">
         <v>602</v>
@@ -13974,10 +13974,10 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B447" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J447" s="2" t="s">
         <v>135</v>
@@ -13985,10 +13985,10 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B448" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J448" t="s">
         <v>184</v>
@@ -13996,7 +13996,7 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B449" t="s">
         <v>239</v>
@@ -14042,7 +14042,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B454" t="s">
         <v>238</v>
@@ -14130,10 +14130,10 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B465" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">

--- a/original data sources.xlsx
+++ b/original data sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\duck-river-traits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA16EE7-5F8A-4AAB-8957-901EF2C455AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A166D6EE-DBD2-48D8-8CEF-65DA03F0E0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{C7BC84C8-8E2D-4231-84F8-692AD85FFC5B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="954">
   <si>
     <t>Verbatim original</t>
   </si>
@@ -2898,6 +2898,9 @@
   </si>
   <si>
     <t>Arthropodium sp. South-east Highlands (N.G.Walsh 811) Vic. Herbarium</t>
+  </si>
+  <si>
+    <t>Cyclospermum leptophyllum</t>
   </si>
 </sst>
 </file>
@@ -8700,8 +8703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AEF565-4C7D-4E03-B6EE-F359AA8C11CB}">
   <dimension ref="A1:O468"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="E303" sqref="E303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12429,7 +12432,7 @@
         <v>456</v>
       </c>
       <c r="J306" t="s">
-        <v>805</v>
+        <v>953</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -12635,7 +12638,7 @@
         <v>805</v>
       </c>
       <c r="B325" t="s">
-        <v>805</v>
+        <v>953</v>
       </c>
       <c r="J325" t="s">
         <v>465</v>
